--- a/02-django/api_export/api 명세.xlsx
+++ b/02-django/api_export/api 명세.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/api/v1/register/1/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,65 +185,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/add/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/번호/managementInfo/add/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/번호/referenceSource/add/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/번호/reference/add/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/번호/put/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/managementInfo/번호/put/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/reference/번호/put/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/referenceSource/번호/put/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/&lt;int:pk&gt;/delete/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/managementInfo/&lt;int:pk&gt;/delete/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/referenceSource/&lt;int:pk&gt;/delete/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/reference/&lt;int:pk&gt;/delete/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample
+path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/referenceSource/1/put/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"sourceDocument" : "SourceDocument234",
+"similarity": "contextAdded"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/reference/2/put/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"sourceDocument" : "djdoc"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/managementInfo/5/put/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+        "proposalType": "supersession",
+        "submittingOrganisation": "Org 3",
+        "proposedChange": "heven can wait",
+        "dateProposed": "2004-08-15",
+        "dateAmended": "2000-10-04",
+        "proposalStatus": "accepted"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/8/put/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+        "itemIdentifier": "4",
+        "name": "Item 4 put",
+        "definition": "problem",
+        "itemStatus": "valid"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/add/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/번호/managementInfo/add/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/번호/referenceSource/add/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/번호/reference/add/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/번호/put/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/managementInfo/번호/put/</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/reference/번호/put/</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/referenceSource/번호/put/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/&lt;int:pk&gt;/delete/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/managementInfo/&lt;int:pk&gt;/delete/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/referenceSource/&lt;int:pk&gt;/delete/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/v1/registerItem/reference/&lt;int:pk&gt;/delete/</t>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/9/reference/add/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+        "referenceIdentifier": "gravity__data556",
+        "sourceDocument": "sdjf"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/9/referenceSource/add/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+        "referenceIdentifier": "Refdsgfdfsgdfg",
+        "sourceDocument": "34567890",
+        "similarity": "contextAdded"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/9/managementInfo/add/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+        "proposalType": "supersession",
+        "submittingOrganisation": "Osdf1234567890-",
+        "proposedChange": "Proposed change for Item 3",
+        "dateProposed": "2024-12-09",
+        "dateAmended": "2018-02-13",
+        "proposalStatus": "accepted"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "itemIdentifier": 10,
+        "name": "sdfgfgsdfg10ut",
+        "definition": "problem",
+        "itemStatus": "valid"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/register/1/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,34 +669,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -605,54 +772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -948,410 +1067,479 @@
     <col min="2" max="2" width="8.796875" style="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
     <col min="4" max="7" width="5.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="2"/>
+    <col min="8" max="9" width="8.796875" style="2"/>
+    <col min="10" max="10" width="36.59765625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="I2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="32"/>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="33"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="37"/>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="64.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="37"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="I8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="18" t="s">
+      <c r="J8" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="64.8" x14ac:dyDescent="0.4">
+      <c r="A9" s="37"/>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="38"/>
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="19" t="s">
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="29"/>
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="30"/>
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="24" t="s">
+      <c r="F13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="54" x14ac:dyDescent="0.4">
+      <c r="A14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="27" t="s">
+      <c r="I14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="29"/>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="30"/>
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="F16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A17" s="29" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="4" t="s">
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A18" s="29"/>
+      <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19" t="s">
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="30"/>
+      <c r="B19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="C19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
-      <c r="B13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="22" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="13"/>
-      <c r="B19" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="I19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1382,8 +1570,16 @@
     <hyperlink ref="H13" r:id="rId13"/>
     <hyperlink ref="H16" r:id="rId14"/>
     <hyperlink ref="H19" r:id="rId15"/>
+    <hyperlink ref="I15" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I12" r:id="rId18"/>
+    <hyperlink ref="I9" r:id="rId19"/>
+    <hyperlink ref="I17" r:id="rId20"/>
+    <hyperlink ref="I14" r:id="rId21"/>
+    <hyperlink ref="I11" r:id="rId22"/>
+    <hyperlink ref="I8" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/02-django/api_export/api 명세.xlsx
+++ b/02-django/api_export/api 명세.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2024\S100-Register\02-django\api_export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2024\02\S100-Register\02-django\api_export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FB2CF2-898E-458B-B7B8-DDE7B4E212DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D310CAD-19B0-47CA-864C-456BD37324D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16500" yWindow="4725" windowWidth="14565" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="9870" windowWidth="27990" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +268,158 @@
   </si>
   <si>
     <t>http://127.0.0.1:8000/api/v1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerList/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/register/&lt;int:pk&gt;/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/register/post/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/register/&lt;int:pk&gt;/put/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/register/&lt;int:pk&gt;/delete/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/register/&lt;int:pk&gt;/itemList/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/&lt;int:pk&gt;/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/&lt;int:pk&gt;/post/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/&lt;int:pk&gt;/put/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/&lt;int:pk&gt;/delete/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/&lt;int:pk&gt;/managementInfo/post/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/managementInfo/&lt;int:pk&gt;/put/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/managementInfo/&lt;int:pk&gt;/delete/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/&lt;int:pk&gt;/referenceSource/post/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/referenceSource/&lt;int:pk&gt;/put/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/referenceSource/&lt;int:pk&gt;/delete/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/&lt;int:pk&gt;/reference/post/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/reference/&lt;int:pk&gt;/put/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/v1/registerItem/reference/&lt;int:pk&gt;/delete/</t>
+  </si>
+  <si>
+    <t>{
+    "name": "Sample Register2",
+    "operatingLanguage": "English",
+    "contentSummary": "This is a sample register content summary.",
+    "uniformResourceIdentifier": "http://example.com/sample-register",
+    "dateOfLastChange": "2024-02-13"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "name": "Sample Register2",
+    "operatingLanguage": "English",
+    "contentSummary": "This is a sample register content summary.",
+    "uniformResourceIdentifier": "http://example.com/sample-register",
+    "dateOfLastChange": "2024-02-22"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "itemIdentifier": 7,
+    "name": "Feature Size Variable2",
+    "definition": "Percentage of depth that a feature of such size could be detected.",
+    "remarks": "Set to zero if the feature detection size does not scale with depth.",
+    "itemStatus": "valid",
+    "proposedChange": "New"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "itemIdentifier": 7,
+    "name": "Feature Size Variable2",
+    "definition": "Percentage of depth that a feature of such size could be detected.",
+    "remarks": "Set to zero if the feature detection size does not scale with depth.",
+    "itemStatus": "notValid",
+    "proposedChange": "New"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "proposalType": "addition",
+    "submittingOrganisation": "IHO Secretariat",
+    "proposedChange": "New",
+    "dateAccepted": "2024-01-23",
+    "dateProposed": "2023-10-27",
+    "dateAmended": "2024-01-25",
+    "proposalStatus": "notYetDetermined"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "proposalType": "addition",
+    "submittingOrganisation": "IHO Secretariat",
+    "proposedChange": "New",
+    "dateAccepted": "2024-01-23",
+    "dateProposed": "2023-10-27",
+    "dateAmended": "2024-01-25",
+    "proposalStatus": "withdrawn"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "referenceIdentifier": "IHO S-102 Project",
+    "sourceDocument": "IHO S-102 Project Team",
+    "similarity": "unspecified"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "referenceIdentifier": "IHO S-102 Project",
+    "sourceDocument": "IHO S-102 Project Team",
+    "similarity": "generalization"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sourceDocument": "IHO S-102 Project"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sourceDocument": "IHO S-102 Project Project"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -266,7 +429,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +465,23 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -351,15 +531,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,28 +552,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -668,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EF3839-926D-4021-A593-F0C14BA93E4C}">
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -682,18 +878,19 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="85.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
@@ -701,14 +898,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -717,13 +914,16 @@
       <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -732,13 +932,16 @@
       <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="7" t="s">
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="63" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -747,13 +950,19 @@
       <c r="F5" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="63" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -762,13 +971,19 @@
       <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -777,15 +992,18 @@
       <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -794,13 +1012,16 @@
       <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -809,13 +1030,16 @@
       <c r="F9" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -824,13 +1048,19 @@
       <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -839,13 +1069,19 @@
       <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -854,15 +1090,18 @@
       <c r="F12" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="81" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -871,13 +1110,19 @@
       <c r="F13" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="81" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -886,13 +1131,19 @@
       <c r="F14" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -901,15 +1152,18 @@
       <c r="F15" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -918,13 +1172,19 @@
       <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -933,13 +1193,19 @@
       <c r="F17" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -948,15 +1214,18 @@
       <c r="F18" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -965,13 +1234,19 @@
       <c r="F19" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -980,13 +1255,19 @@
       <c r="F20" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -995,6 +1276,66 @@
       <c r="F21" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1006,6 +1347,9 @@
     <mergeCell ref="B3:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{3DFFA3DB-471A-4D61-BA91-8E1C44058DE2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>